--- a/specific-tasks/Data Modeling/Data Models.xlsx
+++ b/specific-tasks/Data Modeling/Data Models.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BWS1796\source\repos\cookiecutter-generic\specific-tasks\data-pipeline-design\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\repos\cookiecutter-generic-project\specific-tasks\Data Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C83D32-7DD2-4BB2-9F1D-4E2D520B2078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956F74D2-9A37-4771-A4AA-EE5B942ED893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Model" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>column_name</t>
   </si>
@@ -98,6 +98,27 @@
   </si>
   <si>
     <t>model_name</t>
+  </si>
+  <si>
+    <t>Data Category</t>
+  </si>
+  <si>
+    <t>Quantitative - Discrete</t>
+  </si>
+  <si>
+    <t>Quantitative - Continuous</t>
+  </si>
+  <si>
+    <t>Qualitative - Categorical</t>
+  </si>
+  <si>
+    <t>Qualitative - Binary</t>
+  </si>
+  <si>
+    <t>Qualitative - Ordinal</t>
+  </si>
+  <si>
+    <t>data_category</t>
   </si>
 </sst>
 </file>
@@ -113,12 +134,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -133,13 +160,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -153,9 +206,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7F3A420B-DA0F-43B4-8211-B8783942722C}" name="Table2" displayName="Table2" ref="A1:I200" totalsRowShown="0" headerRowCellStyle="Normal">
-  <autoFilter ref="A1:I200" xr:uid="{7F3A420B-DA0F-43B4-8211-B8783942722C}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7F3A420B-DA0F-43B4-8211-B8783942722C}" name="Table2" displayName="Table2" ref="A1:J200" totalsRowShown="0" headerRowCellStyle="Normal">
+  <autoFilter ref="A1:J200" xr:uid="{7F3A420B-DA0F-43B4-8211-B8783942722C}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{A7A714B9-982B-45DE-A929-20718B5E429F}" name="model_name"/>
     <tableColumn id="3" xr3:uid="{03E643DA-4C86-4B41-A033-A5931B6B970B}" name="column_name"/>
     <tableColumn id="4" xr3:uid="{62D45C2E-5AED-43B0-9A10-DC101645DDB1}" name="column_type"/>
@@ -163,6 +216,7 @@
     <tableColumn id="2" xr3:uid="{A8CF19BD-4BD1-48FF-932A-96F80EDF8273}" name="ordinal_position"/>
     <tableColumn id="5" xr3:uid="{D8E7DAA1-A1CB-4F6A-863C-57E21600DD1F}" name="column_description"/>
     <tableColumn id="6" xr3:uid="{20AF3B4A-DD6D-4B25-97CB-1046718B9DDC}" name="data_type"/>
+    <tableColumn id="10" xr3:uid="{9595991B-6FF2-47AD-BC77-C4EFC5BFA412}" name="data_category"/>
     <tableColumn id="7" xr3:uid="{A4AD784D-782F-40E4-990F-39A7DAFC0D2A}" name="unique_constraint"/>
     <tableColumn id="8" xr3:uid="{2867C591-4FD1-46BF-80FC-C5D230CFB7C8}" name="not_null_constraint"/>
   </tableColumns>
@@ -195,6 +249,16 @@
   <autoFilter ref="G1:G10" xr:uid="{7D0E773B-4E8F-4587-8B30-1D7FC63E3045}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{808BF055-311D-4E59-AEE5-43E1EB6AA1DC}" name="True/False Values"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F260D888-C01C-4C12-982F-6D11595C7138}" name="Table5" displayName="Table5" ref="J1:J6" totalsRowShown="0" dataDxfId="0" tableBorderDxfId="2">
+  <autoFilter ref="J1:J6" xr:uid="{F260D888-C01C-4C12-982F-6D11595C7138}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{A36875B1-60CD-4CD4-A86E-BB097DDD00B0}" name="Data Category" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -498,11 +562,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -512,14 +574,15 @@
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -542,17 +605,20 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -566,12 +632,12 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AFE87EA3-A546-4F20-950C-2F1EFCCE7B2A}">
           <x14:formula1>
             <xm:f>'Accepted Values'!$G$2:$G$10</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D200 I2:I200 H2:H200</xm:sqref>
+          <xm:sqref>D2:D200 J2:J200 I2:I200</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B2D8708F-1FC4-4DA1-A6B1-05634D1122A5}">
           <x14:formula1>
@@ -585,6 +651,12 @@
           </x14:formula1>
           <xm:sqref>C2:C200</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F1BE5485-BA5B-4BDD-BDE5-0CE54E7D2591}">
+          <x14:formula1>
+            <xm:f>'Accepted Values'!$J$2:$J$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H200</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -607,10 +679,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47350A2F-844F-4E29-9206-3CF20070DD84}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,9 +690,10 @@
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -630,8 +703,11 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -641,8 +717,11 @@
       <c r="G2" t="b">
         <v>1</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -652,8 +731,11 @@
       <c r="G3" t="b">
         <v>0</v>
       </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -663,31 +745,62 @@
       <c r="G4" t="s">
         <v>18</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>18</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="40913ac8-7004-4fa8-a08c-cf51ca4377cd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ac92fc72-d22a-4f0c-9194-3a13f88c7402" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="40913ac8-7004-4fa8-a08c-cf51ca4377cd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010003981A0C7F0F4847AE875689FCA686B1" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="359d3491d73a27c423a1521a8f7f83fe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="40913ac8-7004-4fa8-a08c-cf51ca4377cd" xmlns:ns3="ac92fc72-d22a-4f0c-9194-3a13f88c7402" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="63570418034650c7fb1d04730878d568" ns2:_="" ns3:_="">
     <xsd:import namespace="40913ac8-7004-4fa8-a08c-cf51ca4377cd"/>
@@ -936,28 +1049,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="40913ac8-7004-4fa8-a08c-cf51ca4377cd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ac92fc72-d22a-4f0c-9194-3a13f88c7402" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="40913ac8-7004-4fa8-a08c-cf51ca4377cd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EC89C60-1980-4621-8631-DBD628FEB267}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADF31482-F608-4470-A200-1FB20191FF52}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="ac92fc72-d22a-4f0c-9194-3a13f88c7402"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="40913ac8-7004-4fa8-a08c-cf51ca4377cd"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1794EA5-F583-4866-A150-8D42C657092C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -976,31 +1093,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADF31482-F608-4470-A200-1FB20191FF52}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="ac92fc72-d22a-4f0c-9194-3a13f88c7402"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="40913ac8-7004-4fa8-a08c-cf51ca4377cd"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EC89C60-1980-4621-8631-DBD628FEB267}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{1a04591e-2156-4e7e-b8dc-60ccb91b4f06}" enabled="1" method="Standard" siteId="{fb7e6711-b619-4fbe-afe6-f83b12673323}" contentBits="2" removed="0"/>

--- a/specific-tasks/Data Modeling/Data Models.xlsx
+++ b/specific-tasks/Data Modeling/Data Models.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\repos\cookiecutter-generic-project\specific-tasks\Data Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956F74D2-9A37-4771-A4AA-EE5B942ED893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BF3721-4D28-4791-8636-3EB9DD02BCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,10 +160,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -178,19 +177,19 @@
       </fill>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="0" tint="-0.14999847407452621"/>
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -255,10 +254,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F260D888-C01C-4C12-982F-6D11595C7138}" name="Table5" displayName="Table5" ref="J1:J6" totalsRowShown="0" dataDxfId="0" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F260D888-C01C-4C12-982F-6D11595C7138}" name="Table5" displayName="Table5" ref="J1:J6" totalsRowShown="0" dataDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="J1:J6" xr:uid="{F260D888-C01C-4C12-982F-6D11595C7138}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{A36875B1-60CD-4CD4-A86E-BB097DDD00B0}" name="Data Category" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{A36875B1-60CD-4CD4-A86E-BB097DDD00B0}" name="Data Category" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -568,16 +567,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.28515625" customWidth="1"/>
     <col min="13" max="13" width="20.42578125" customWidth="1"/>
   </cols>
@@ -764,7 +763,7 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -789,18 +788,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="40913ac8-7004-4fa8-a08c-cf51ca4377cd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ac92fc72-d22a-4f0c-9194-3a13f88c7402" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="40913ac8-7004-4fa8-a08c-cf51ca4377cd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010003981A0C7F0F4847AE875689FCA686B1" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="359d3491d73a27c423a1521a8f7f83fe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="40913ac8-7004-4fa8-a08c-cf51ca4377cd" xmlns:ns3="ac92fc72-d22a-4f0c-9194-3a13f88c7402" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="63570418034650c7fb1d04730878d568" ns2:_="" ns3:_="">
     <xsd:import namespace="40913ac8-7004-4fa8-a08c-cf51ca4377cd"/>
@@ -1049,6 +1036,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="40913ac8-7004-4fa8-a08c-cf51ca4377cd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ac92fc72-d22a-4f0c-9194-3a13f88c7402" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="40913ac8-7004-4fa8-a08c-cf51ca4377cd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EC89C60-1980-4621-8631-DBD628FEB267}">
   <ds:schemaRefs>
@@ -1058,23 +1057,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADF31482-F608-4470-A200-1FB20191FF52}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="ac92fc72-d22a-4f0c-9194-3a13f88c7402"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="40913ac8-7004-4fa8-a08c-cf51ca4377cd"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1794EA5-F583-4866-A150-8D42C657092C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1093,6 +1075,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADF31482-F608-4470-A200-1FB20191FF52}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="ac92fc72-d22a-4f0c-9194-3a13f88c7402"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="40913ac8-7004-4fa8-a08c-cf51ca4377cd"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{1a04591e-2156-4e7e-b8dc-60ccb91b4f06}" enabled="1" method="Standard" siteId="{fb7e6711-b619-4fbe-afe6-f83b12673323}" contentBits="2" removed="0"/>
